--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8820"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Teste1" sheetId="1" r:id="rId1"/>
+    <sheet name="Teste2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="60">
   <si>
     <t>User</t>
   </si>
@@ -44,10 +45,166 @@
     <t>Pertence à TaskList</t>
   </si>
   <si>
-    <t>Task (Unique)</t>
-  </si>
-  <si>
     <t>Assigned To</t>
+  </si>
+  <si>
+    <t>JoseAlvaro</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>TL1</t>
+  </si>
+  <si>
+    <t>TL2</t>
+  </si>
+  <si>
+    <t>TL3</t>
+  </si>
+  <si>
+    <t>TL4</t>
+  </si>
+  <si>
+    <t>TL5</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>AntonioSilva</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>ManuelSilva</t>
+  </si>
+  <si>
+    <t>InesSilva</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>T16</t>
+  </si>
+  <si>
+    <t>T17</t>
+  </si>
+  <si>
+    <t>T18</t>
+  </si>
+  <si>
+    <t>T19</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>T21</t>
+  </si>
+  <si>
+    <t>T22</t>
+  </si>
+  <si>
+    <t>TL2 (P2)</t>
+  </si>
+  <si>
+    <t>T23</t>
+  </si>
+  <si>
+    <t>TL1 (P1)</t>
+  </si>
+  <si>
+    <t>TL3 (P1)</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>T24</t>
+  </si>
+  <si>
+    <t>T25</t>
+  </si>
+  <si>
+    <t>Só Pode ser JoseAlvaro, ManuelSilva e InesSilva</t>
+  </si>
+  <si>
+    <t>TL4 (P2)</t>
+  </si>
+  <si>
+    <t>T26</t>
+  </si>
+  <si>
+    <t>T27</t>
+  </si>
+  <si>
+    <t>T28</t>
+  </si>
+  <si>
+    <t>T29</t>
+  </si>
+  <si>
+    <t>T30</t>
+  </si>
+  <si>
+    <t>PedroSilva</t>
+  </si>
+  <si>
+    <t>So pode ser JoseAlvaro, AntonioSilva, InesSilva, PedroSilva</t>
+  </si>
+  <si>
+    <t>TL5 (P3)</t>
+  </si>
+  <si>
+    <t>T31</t>
+  </si>
+  <si>
+    <t>Só Pode ser JoseAlvaro, PedroSilva</t>
   </si>
 </sst>
 </file>
@@ -63,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,6 +242,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3399FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -101,18 +312,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -121,6 +363,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9900"/>
+      <color rgb="FF3399FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -395,162 +643,538 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:M20"/>
+  <dimension ref="B2:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="13.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="3" customWidth="1"/>
+    <col min="11" max="12" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="67.28515625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="H2" s="1" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>3</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
+      <c r="K11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D18" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="K30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="64">
   <si>
     <t>User</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Owner</t>
   </si>
   <si>
-    <t>Associated</t>
-  </si>
-  <si>
     <t>TaskList</t>
   </si>
   <si>
@@ -205,12 +202,27 @@
   </si>
   <si>
     <t>Só Pode ser JoseAlvaro, PedroSilva</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>Associated User</t>
+  </si>
+  <si>
+    <t>3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -643,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M33"/>
+  <dimension ref="A2:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +666,7 @@
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="13.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="3"/>
@@ -666,18 +678,30 @@
     <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="K2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -691,479 +715,494 @@
         <v>1</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="B7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="I7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="L10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D11" s="3" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="L12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="K13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D14" s="9" t="s">
-        <v>27</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D14" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="L15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D19" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D18" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="L20" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="K21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="K22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="K23" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.25">
       <c r="K24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.25">
       <c r="K25" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="4:13" x14ac:dyDescent="0.25">
       <c r="K26" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="K27" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="K28" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="K29" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="K30" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="4:13" x14ac:dyDescent="0.25">
       <c r="K31" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="4:13" x14ac:dyDescent="0.25">
       <c r="K32" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M33" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaSEInstall\ProjetoGrupo25052019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java\ProjetoGrupo25052019\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="61">
   <si>
     <t>User</t>
   </si>
@@ -205,12 +205,15 @@
   </si>
   <si>
     <t>Só Pode ser JoseAlvaro, PedroSilva</t>
+  </si>
+  <si>
+    <t>T32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -643,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M33"/>
+  <dimension ref="B2:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="K28" sqref="K28:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,11 +665,13 @@
     <col min="9" max="9" width="16.5703125" style="3" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" style="3" customWidth="1"/>
     <col min="11" max="12" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="67.28515625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="13" max="13" width="19" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="56.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K2" s="4" t="s">
         <v>45</v>
       </c>
@@ -674,10 +679,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -699,11 +707,17 @@
       <c r="L3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
@@ -725,11 +739,17 @@
       <c r="L4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
@@ -751,11 +771,17 @@
       <c r="L5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>27</v>
       </c>
@@ -777,11 +803,17 @@
       <c r="L6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>28</v>
       </c>
@@ -797,11 +829,17 @@
       <c r="L7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>55</v>
       </c>
@@ -817,22 +855,34 @@
       <c r="L8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K9" s="4" t="s">
         <v>23</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
@@ -842,11 +892,17 @@
       <c r="L10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D11" s="3" t="s">
         <v>0</v>
       </c>
@@ -859,11 +915,17 @@
       <c r="L11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D12" s="6" t="s">
         <v>7</v>
       </c>
@@ -876,11 +938,17 @@
       <c r="L12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D13" s="8" t="s">
         <v>21</v>
       </c>
@@ -893,11 +961,17 @@
       <c r="L13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D14" s="9" t="s">
         <v>27</v>
       </c>
@@ -910,11 +984,17 @@
       <c r="L14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D15" s="12" t="s">
         <v>28</v>
       </c>
@@ -927,11 +1007,17 @@
       <c r="L15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D16" s="12" t="s">
         <v>28</v>
       </c>
@@ -944,11 +1030,17 @@
       <c r="L16" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D17" s="6" t="s">
         <v>7</v>
       </c>
@@ -961,11 +1053,17 @@
       <c r="L17" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D18" s="15" t="s">
         <v>55</v>
       </c>
@@ -978,11 +1076,17 @@
       <c r="L18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D19" s="6" t="s">
         <v>7</v>
       </c>
@@ -995,11 +1099,17 @@
       <c r="L19" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D20" s="3" t="s">
         <v>55</v>
       </c>
@@ -1012,110 +1122,170 @@
       <c r="L20" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
       <c r="K21" s="4" t="s">
         <v>37</v>
       </c>
       <c r="L21" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
       <c r="K22" s="4" t="s">
         <v>38</v>
       </c>
       <c r="L22" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
       <c r="K23" s="4" t="s">
         <v>39</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
       <c r="K24" s="4" t="s">
         <v>40</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
       <c r="K25" s="4" t="s">
         <v>42</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
       <c r="K26" s="4" t="s">
         <v>46</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
       <c r="K27" s="4" t="s">
         <v>47</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
       <c r="K28" s="4" t="s">
         <v>50</v>
       </c>
       <c r="L28" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="M28" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
       <c r="K29" s="4" t="s">
         <v>51</v>
       </c>
       <c r="L29" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="K30" s="4" t="s">
@@ -1124,46 +1294,87 @@
       <c r="L30" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="M30" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
       <c r="K31" s="4" t="s">
         <v>53</v>
       </c>
       <c r="L31" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="M31" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
       <c r="K32" s="4" t="s">
         <v>54</v>
       </c>
       <c r="L32" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="M32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K33" s="3" t="s">
         <v>58</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="M33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O34" s="3" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java\ProjetoGrupo25052019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaSEInstall\ProjetoGrupo25052019\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -649,7 +649,7 @@
   <dimension ref="B2:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28:N32"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
